--- a/results/I3_N5_M3_T45_C100_DepLowerLeft_s2_P6_res.xlsx
+++ b/results/I3_N5_M3_T45_C100_DepLowerLeft_s2_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>728.813658108537</v>
+        <v>666.8030322402312</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.00800013542175293</v>
+        <v>0.004999876022338867</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60.75365810853467</v>
+        <v>56.80303224023129</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>23.67359223899517</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>23.67359223899517</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>440.5500000000024</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>227.51</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +580,116 @@
         <is>
           <t>alpha</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -656,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -678,7 +788,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +799,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -758,7 +868,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -769,7 +879,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -780,7 +890,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -791,7 +901,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -882,7 +992,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -890,7 +1000,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.132299474826759</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -898,7 +1008,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +1016,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -914,7 +1024,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>36.11932185785321</v>
+        <v>43.83362933974247</v>
       </c>
     </row>
     <row r="9">
@@ -930,7 +1040,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>43.83362933974247</v>
+        <v>33.13229947482676</v>
       </c>
     </row>
   </sheetData>
@@ -944,7 +1054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -972,6 +1082,146 @@
         <is>
           <t>y</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1073,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>95.89000000000058</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1334,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>81.38500000000059</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1345,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>85.82000000000059</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1356,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>85.29500000000057</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11">
@@ -1117,7 +1367,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>94.67000000000058</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12">
@@ -1128,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>137.3599999999999</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13">
@@ -1139,7 +1389,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>134.9949999999999</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14">
@@ -1150,7 +1400,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>130.4949999999999</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15">
@@ -1161,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>140.7199999999999</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16">
@@ -1172,7 +1422,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>137.75</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17">
@@ -1183,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>32.91499999999935</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18">
@@ -1194,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>33.31999999999935</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19">
@@ -1205,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>26.77999999999935</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20">
@@ -1216,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>36.18499999999935</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21">
@@ -1227,7 +1477,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>35.9</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22">
@@ -1238,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>106.1700000000004</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23">
@@ -1249,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>112.4900000000004</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24">
@@ -1260,7 +1510,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>102.5700000000004</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25">
@@ -1271,7 +1521,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>110.05</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26">
@@ -1282,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>107.6750000000004</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27">
@@ -1293,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>52.23500000000072</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28">
@@ -1304,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>44.35</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29">
@@ -1315,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>44.52500000000073</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30">
@@ -1326,7 +1576,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>45.78500000000072</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
@@ -1337,7 +1587,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>50.8</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
@@ -1348,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>106.1700000000004</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33">
@@ -1359,7 +1609,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>112.4900000000004</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34">
@@ -1370,7 +1620,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>102.5700000000004</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35">
@@ -1381,7 +1631,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>110.05</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36">
@@ -1392,7 +1642,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>107.6750000000004</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37">
@@ -1403,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>137.3599999999999</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38">
@@ -1414,7 +1664,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>134.9949999999999</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39">
@@ -1425,7 +1675,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>130.4949999999999</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40">
@@ -1436,7 +1686,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>140.7199999999999</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41">
@@ -1447,7 +1697,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>137.75</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42">
@@ -1458,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>95.89000000000058</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43">
@@ -1469,7 +1719,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>81.38500000000059</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44">
@@ -1480,7 +1730,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>85.82000000000059</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45">
@@ -1491,7 +1741,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>85.29500000000057</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46">
@@ -1502,7 +1752,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>94.67000000000058</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1549,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>6.170000000000372</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -1560,7 +1810,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>12.49000000000036</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -1571,7 +1821,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>2.57000000000037</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1582,7 +1832,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>10.05</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1593,7 +1843,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>7.675000000000359</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -1604,7 +1854,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>37.35999999999993</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
@@ -1615,7 +1865,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>34.99499999999992</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
@@ -1626,7 +1876,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>30.49499999999995</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -1637,7 +1887,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>40.71999999999994</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11">
@@ -1648,7 +1898,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>37.75</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12">
@@ -1805,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1816,7 +2066,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>13.94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1827,7 +2077,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>12.97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1838,7 +2088,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>12.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1849,7 +2099,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>14.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1860,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>8.255000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1871,7 +2121,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>13.395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1882,7 +2132,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>11.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1893,7 +2143,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>11.465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1904,7 +2154,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>9.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1915,7 +2165,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1926,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1937,7 +2187,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1948,7 +2198,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1959,7 +2209,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1970,7 +2220,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -1981,7 +2231,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1992,7 +2242,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -2003,7 +2253,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2014,7 +2264,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2055,7 +2305,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2066,7 +2316,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2077,7 +2327,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2088,7 +2338,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2099,7 +2349,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2110,7 +2360,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2121,7 +2371,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2132,7 +2382,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2143,7 +2393,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2154,7 +2404,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
